--- a/biology/Botanique/Teucrium_polium/Teucrium_polium.xlsx
+++ b/biology/Botanique/Teucrium_polium/Teucrium_polium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium polium, la Germandrée tomenteuse, Germandrée blanc-grisâtre ou Germandrée pouillot est une plante herbacée méditerranéenne de la famille des Lamiacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Germandrée tomenteuse est considérée comme une plante aromatique. Ses feuilles possèdent l'étonnant goût de saucisson poivré et agrémente les salades, les plats chauds ou les fromages de chèvre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Germandrée tomenteuse est considérée comme une plante aromatique. Ses feuilles possèdent l'étonnant goût de saucisson poivré et agrémente les salades, les plats chauds ou les fromages de chèvre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est utilisée dans la médecine populaire maghrébine pour soigner divers problèmes de santé. Pour un usage médicinal, l'infusion des feuilles est privilégiée.
 </t>
@@ -573,24 +589,26 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 janvier 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 janvier 2015) :
 Teucrium polium L. (1753)
 sous-espèce Teucrium polium subsp. aurasiacum (Maire) Greuter &amp; Burdet (1985)
 sous-espèce Teucrium polium subsp. chevalieri Maire (1933)
 sous-espèce Teucrium polium subsp. clapae S.Puech, Naturalia Monspel. (1970 publ. 1971)
 sous-espèce Teucrium polium subsp. polium
 sous-espèce Teucrium polium subsp. purpurascens (Benth.) S.Puech (1976)
-Selon NCBI  (12 janvier 2015)[4] :
+Selon NCBI  (12 janvier 2015) :
 sous-espèce Teucrium polium subsp. polium
-Selon The Plant List            (12 janvier 2015)[1] :
+Selon The Plant List            (12 janvier 2015) :
 sous-espèce Teucrium polium subsp. aurasiacum (Maire) Greuter &amp; Burdet
 sous-espèce Teucrium polium subsp. clapae S.Puech
 sous-espèce Teucrium polium subsp. polium
 sous-espèce Teucrium polium subsp. purpurascens (Benth.) S.Puech
 sous-espèce Teucrium polium subsp. rupestricola (Sennen) T.Navarro &amp; Rosua
-Selon Tropicos                                           (12 janvier 2015)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 janvier 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Teucrium polium subsp. aguilasense S. Puech
 sous-espèce Teucrium polium subsp. album (Garsault) Breistr.
 sous-espèce Teucrium polium subsp. antiatlanticum Maire
